--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yusuke\git\codegym-db\db\db-challenge2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1E54CA-9513-4653-96F3-42CA2550256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699B0284-55BF-49F6-8850-D4056184BCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="16335" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="16335" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="users" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="115">
   <si>
     <t>改定履歴</t>
   </si>
@@ -455,16 +455,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>ファイル送信許可フラグ</t>
-    <rPh sb="4" eb="6">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョカ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>ダイレクトチャット判定フラグ</t>
     <rPh sb="9" eb="11">
       <t>ハンテイ</t>
@@ -812,10 +802,6 @@
     </r>
   </si>
   <si>
-    <t>is_allow_send_file</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>is_chatroom_directchat</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -1053,6 +1039,27 @@
   </si>
   <si>
     <t>mobile_phone_number</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ファイル送信拒否フラグ</t>
+    <rPh sb="4" eb="6">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョヒ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>カラム名変更</t>
+    <rPh sb="3" eb="6">
+      <t>メイヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>is_denied_send_file</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -1547,7 +1554,7 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
@@ -1634,7 +1641,7 @@
         <v>27</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -1650,7 +1657,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K5" s="22"/>
     </row>
@@ -1663,10 +1670,10 @@
         <v>28</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="18">
         <v>100</v>
@@ -1688,10 +1695,10 @@
         <v>29</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="18">
         <v>100</v>
@@ -1713,10 +1720,10 @@
         <v>30</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F8" s="18">
         <v>100</v>
@@ -1738,10 +1745,10 @@
         <v>31</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="18">
         <v>13</v>
@@ -1761,10 +1768,10 @@
         <v>32</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F10" s="18">
         <v>13</v>
@@ -1784,10 +1791,10 @@
         <v>33</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="18">
         <v>1000</v>
@@ -1807,10 +1814,10 @@
         <v>34</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
@@ -1830,10 +1837,10 @@
         <v>35</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="22"/>
@@ -1970,9 +1977,9 @@
   </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2054,10 +2061,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -2086,10 +2093,10 @@
         <v>41</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" s="18">
         <v>100</v>
@@ -2111,10 +2118,10 @@
         <v>42</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F7" s="18">
         <v>1000</v>
@@ -2131,10 +2138,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>23</v>
@@ -2151,7 +2158,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -2160,10 +2167,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>23</v>
@@ -2180,7 +2187,7 @@
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
       <c r="K9" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -2192,10 +2199,10 @@
         <v>34</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="22"/>
@@ -2215,10 +2222,10 @@
         <v>35</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="22"/>
@@ -2267,10 +2274,10 @@
         <v>21</v>
       </c>
       <c r="D13" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="F13" s="19">
         <v>11</v>
@@ -2280,7 +2287,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -2294,10 +2301,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14" s="18">
         <v>11</v>
@@ -2307,7 +2314,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -2398,7 +2405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2419,7 +2426,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -2429,7 +2436,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -2480,10 +2487,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -2509,13 +2516,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F6" s="18">
         <v>1000</v>
@@ -2534,13 +2541,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="18">
         <v>100</v>
@@ -2557,13 +2564,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="22"/>
@@ -2583,10 +2590,10 @@
         <v>35</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="22"/>
@@ -2632,13 +2639,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="19">
         <v>11</v>
@@ -2648,7 +2655,7 @@
         <v>19</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="17"/>
@@ -2659,13 +2666,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="19">
         <v>11</v>
@@ -2675,7 +2682,7 @@
         <v>19</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
@@ -2689,10 +2696,10 @@
         <v>25</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="19">
         <v>11</v>
@@ -2702,7 +2709,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -2780,7 +2787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2801,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -2811,7 +2818,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -2862,10 +2869,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -2891,13 +2898,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F6" s="18">
         <v>1000</v>
@@ -2916,13 +2923,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="22"/>
@@ -2937,10 +2944,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>23</v>
@@ -2957,7 +2964,7 @@
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
       <c r="K8" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
@@ -2969,10 +2976,10 @@
         <v>34</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="22"/>
@@ -2992,10 +2999,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="22"/>
@@ -3044,10 +3051,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F12" s="18">
         <v>11</v>
@@ -3057,7 +3064,7 @@
         <v>19</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="17"/>
@@ -3068,13 +3075,13 @@
         <v>9</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F13" s="19">
         <v>11</v>
@@ -3084,7 +3091,7 @@
         <v>19</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -3098,10 +3105,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F14" s="18">
         <v>11</v>
@@ -3111,7 +3118,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
@@ -3122,13 +3129,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F15" s="19">
         <v>11</v>
@@ -3138,7 +3145,7 @@
         <v>19</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -3229,7 +3236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3250,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
@@ -3260,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -3311,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>18</v>
@@ -3340,13 +3347,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="22"/>
@@ -3363,13 +3370,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F7" s="18">
         <v>11</v>
@@ -3379,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
@@ -3390,13 +3397,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="18">
         <v>11</v>
@@ -3406,7 +3413,7 @@
         <v>19</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
@@ -3526,8 +3533,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3641,13 +3648,13 @@
         <v>44373</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -3677,13 +3684,13 @@
         <v>44373</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3713,13 +3720,13 @@
         <v>44373</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -3749,13 +3756,13 @@
         <v>44373</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -3785,13 +3792,13 @@
         <v>44373</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="42" t="s">
         <v>71</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>72</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -3821,13 +3828,13 @@
         <v>44375</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -3857,13 +3864,13 @@
         <v>44375</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3893,13 +3900,13 @@
         <v>44375</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3932,10 +3939,10 @@
         <v>38</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3965,13 +3972,13 @@
         <v>44375</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="42" t="s">
         <v>71</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>72</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3997,10 +4004,18 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="A14" s="11">
+        <v>44375</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>71</v>
+      </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
